--- a/BioSTEAM 2.x.x/biorefineries/LAOs/results/Stream tables [lab].xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/LAOs/results/Stream tables [lab].xlsx
@@ -20,6 +20,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="162">
   <si>
+    <t>cell_recycle</t>
+  </si>
+  <si>
     <t>process_water</t>
   </si>
   <si>
@@ -29,9 +32,6 @@
     <t>CO2</t>
   </si>
   <si>
-    <t>cell_recycle</t>
-  </si>
-  <si>
     <t>s1</t>
   </si>
   <si>
@@ -233,15 +233,15 @@
     <t>C101</t>
   </si>
   <si>
+    <t>oil_fraction</t>
+  </si>
+  <si>
+    <t>aqueous_fraction</t>
+  </si>
+  <si>
     <t>cell_mass</t>
   </si>
   <si>
-    <t>oil_fraction</t>
-  </si>
-  <si>
-    <t>aqueous_fraction</t>
-  </si>
-  <si>
     <t>s12</t>
   </si>
   <si>
@@ -431,12 +431,24 @@
     <t>T110</t>
   </si>
   <si>
+    <t>s.16</t>
+  </si>
+  <si>
+    <t>s.12</t>
+  </si>
+  <si>
+    <t>CSL</t>
+  </si>
+  <si>
+    <t>evaporation_and_blowdown</t>
+  </si>
+  <si>
+    <t>s.13</t>
+  </si>
+  <si>
     <t>DAP</t>
   </si>
   <si>
-    <t>s.13</t>
-  </si>
-  <si>
     <t>s.18</t>
   </si>
   <si>
@@ -473,6 +485,9 @@
     <t>decene</t>
   </si>
   <si>
+    <t>s.15</t>
+  </si>
+  <si>
     <t>ash_disposal</t>
   </si>
   <si>
@@ -482,28 +497,13 @@
     <t>cooling_tower_makeup_water</t>
   </si>
   <si>
-    <t>s.15</t>
-  </si>
-  <si>
-    <t>s.16</t>
-  </si>
-  <si>
-    <t>CSL</t>
-  </si>
-  <si>
-    <t>s.12</t>
-  </si>
-  <si>
-    <t>evaporation_and_blowdown</t>
+    <t>CT</t>
   </si>
   <si>
     <t>BT</t>
   </si>
   <si>
     <t>CWP</t>
-  </si>
-  <si>
-    <t>CT</t>
   </si>
 </sst>
 </file>
@@ -922,13 +922,13 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
@@ -972,13 +972,13 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -1025,10 +1025,10 @@
         <v>57</v>
       </c>
       <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
         <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
       </c>
       <c r="F4" t="s">
         <v>57</v>
@@ -1069,7 +1069,7 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>310.15</v>
+        <v>298.15</v>
       </c>
       <c r="C5">
         <v>310.15</v>
@@ -1078,19 +1078,19 @@
         <v>310.15</v>
       </c>
       <c r="E5">
-        <v>298.15</v>
+        <v>310.15</v>
       </c>
       <c r="F5">
-        <v>311.6086448725808</v>
+        <v>311.606295817391</v>
       </c>
       <c r="G5">
         <v>298.15</v>
       </c>
       <c r="H5">
-        <v>311.6086448725808</v>
+        <v>311.606295817391</v>
       </c>
       <c r="I5">
-        <v>311.6086448725808</v>
+        <v>311.606295817391</v>
       </c>
       <c r="J5">
         <v>298.15</v>
@@ -1102,7 +1102,7 @@
         <v>298.15</v>
       </c>
       <c r="M5">
-        <v>310.079986298211</v>
+        <v>310.102143816012</v>
       </c>
       <c r="N5">
         <v>310.15</v>
@@ -1119,49 +1119,49 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>3514.200814430426</v>
+        <v>22.6576358539463</v>
       </c>
       <c r="C6">
-        <v>4398.46402512443</v>
+        <v>4530.505607502827</v>
       </c>
       <c r="D6">
+        <v>5637.080388897191</v>
+      </c>
+      <c r="E6">
         <v>55.89808687746606</v>
       </c>
-      <c r="E6">
-        <v>17.57496285086608</v>
-      </c>
       <c r="F6">
-        <v>704.5071241774483</v>
+        <v>908.0438518752363</v>
       </c>
       <c r="G6">
-        <v>114.5467737895745</v>
+        <v>114.5467737895744</v>
       </c>
       <c r="H6">
-        <v>704.5071241774483</v>
+        <v>908.0438518752363</v>
       </c>
       <c r="I6">
-        <v>704.5071241774483</v>
+        <v>908.0438518752363</v>
       </c>
       <c r="J6">
-        <v>10.99616005462778</v>
+        <v>14.09270095972253</v>
       </c>
       <c r="K6">
-        <v>35.14992570173215</v>
+        <v>45.31527170789259</v>
       </c>
       <c r="L6">
-        <v>1.488264119754239</v>
+        <v>1.918547207991621</v>
       </c>
       <c r="M6">
-        <v>4398.464021851113</v>
+        <v>5637.080383889012</v>
       </c>
       <c r="N6">
-        <v>4342.565900097768</v>
+        <v>5581.18226387053</v>
       </c>
       <c r="O6">
-        <v>4342.565900097768</v>
+        <v>5581.18226387053</v>
       </c>
       <c r="P6">
-        <v>4342.565900097768</v>
+        <v>5581.18226387053</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1274,28 +1274,28 @@
         <v>23</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>100</v>
       </c>
-      <c r="C10">
-        <v>79.91409160323366</v>
-      </c>
       <c r="D10">
-        <v>0</v>
+        <v>80.38784012579573</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1123843486626745</v>
+        <v>0.1125015366077221</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.1123843486626745</v>
+        <v>0.1125015366077221</v>
       </c>
       <c r="I10">
-        <v>0.1123843486626745</v>
+        <v>0.1125015366077221</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>79.91409166270536</v>
+        <v>80.3878401972151</v>
       </c>
       <c r="N10">
-        <v>81.14448983394773</v>
+        <v>81.34992428655582</v>
       </c>
       <c r="O10">
-        <v>81.14448983394773</v>
+        <v>81.34992428655582</v>
       </c>
       <c r="P10">
-        <v>81.14448983394773</v>
+        <v>81.34992428655582</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1477,25 +1477,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>15.98281832064673</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>16.07756802515915</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>99.78586303941685</v>
+        <v>99.80855355016233</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>99.78586303941685</v>
+        <v>99.80855355016233</v>
       </c>
       <c r="I14">
-        <v>99.78586303941685</v>
+        <v>99.80855355016233</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1507,16 +1507,16 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.98281833254107</v>
+        <v>16.07756803944302</v>
       </c>
       <c r="N14">
-        <v>16.18855142805814</v>
+        <v>16.23859231447733</v>
       </c>
       <c r="O14">
-        <v>16.18855142805814</v>
+        <v>16.23859231447733</v>
       </c>
       <c r="P14">
-        <v>16.18855142805814</v>
+        <v>16.23859231447733</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1627,25 +1627,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01153582939437302</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.009001101118064625</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.07202188430722316</v>
+        <v>0.05587828218465188</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07202188430722316</v>
+        <v>0.05587828218465188</v>
       </c>
       <c r="I17">
-        <v>0.07202188430722316</v>
+        <v>0.05587828218465188</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01153582940295794</v>
+        <v>0.009001101126061518</v>
       </c>
       <c r="N17">
-        <v>0.1062406595712802</v>
+        <v>0.08266296344498658</v>
       </c>
       <c r="O17">
-        <v>0.1062406595712802</v>
+        <v>0.08266296344498658</v>
       </c>
       <c r="P17">
-        <v>0.1062406595712802</v>
+        <v>0.08266296344498658</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1677,25 +1677,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.003249686361597831</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.002535643909314887</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02028883465318278</v>
+        <v>0.01574112145014499</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02028883465318278</v>
+        <v>0.01574112145014499</v>
       </c>
       <c r="I18">
-        <v>0.02028883465318278</v>
+        <v>0.01574112145014499</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1707,16 +1707,16 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.003249686364016233</v>
+        <v>0.002535643911567642</v>
       </c>
       <c r="N18">
-        <v>0.09784785612853301</v>
+        <v>0.07613275168812811</v>
       </c>
       <c r="O18">
-        <v>0.09784785612853301</v>
+        <v>0.07613275168812811</v>
       </c>
       <c r="P18">
-        <v>0.09784785612853301</v>
+        <v>0.07613275168812811</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1727,25 +1727,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0008893948158351767</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.0006939711396147945</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.005552777207399625</v>
+        <v>0.004308130156384442</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.005552777207399625</v>
+        <v>0.004308130156384442</v>
       </c>
       <c r="I19">
-        <v>0.005552777207399625</v>
+        <v>0.004308130156384442</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1757,16 +1757,16 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0008893948164970603</v>
+        <v>0.0006939711402313426</v>
       </c>
       <c r="N19">
-        <v>0.2845698612598612</v>
+        <v>0.2214160579743598</v>
       </c>
       <c r="O19">
-        <v>0.2845698612598612</v>
+        <v>0.2214160579743598</v>
       </c>
       <c r="P19">
-        <v>0.2845698612598612</v>
+        <v>0.2214160579743598</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1927,25 +1927,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0002943989857442161</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0002297117049986088</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.00183802732916424</v>
+        <v>0.001426036137653088</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.00183802732916424</v>
+        <v>0.001426036137653088</v>
       </c>
       <c r="I23">
-        <v>0.00183802732916424</v>
+        <v>0.001426036137653088</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1957,16 +1957,16 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.0002943989859633065</v>
+        <v>0.0002297117052026927</v>
       </c>
       <c r="N23">
-        <v>0.0002981885313012524</v>
+        <v>0.0002320123741040099</v>
       </c>
       <c r="O23">
-        <v>0.0002981885313012524</v>
+        <v>0.0002320123741040099</v>
       </c>
       <c r="P23">
-        <v>0.0002981885313012524</v>
+        <v>0.0002320123741040099</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1977,25 +1977,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.014638165305829e-05</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>6.253636606482865e-05</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.0005003795765109652</v>
+        <v>0.0003882219146233231</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0005003795765109652</v>
+        <v>0.0003882219146233231</v>
       </c>
       <c r="I24">
-        <v>0.0005003795765109652</v>
+        <v>0.0003882219146233231</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>8.014638171270286e-05</v>
+        <v>6.253636612038814e-05</v>
       </c>
       <c r="N24">
-        <v>8.117803726062808e-05</v>
+        <v>6.316269673165417e-05</v>
       </c>
       <c r="O24">
-        <v>8.117803726062808e-05</v>
+        <v>6.316269673165417e-05</v>
       </c>
       <c r="P24">
-        <v>8.117803726062808e-05</v>
+        <v>6.316269673165417e-05</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2027,25 +2027,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0002483788486132986</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.0001938036896244963</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.001550708846987117</v>
+        <v>0.001203121386507964</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.001550708846987117</v>
+        <v>0.001203121386507964</v>
       </c>
       <c r="I25">
-        <v>0.001550708846987117</v>
+        <v>0.001203121386507964</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2057,16 +2057,16 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.000248378848798141</v>
+        <v>0.0001938036897966783</v>
       </c>
       <c r="N25">
-        <v>0.0002515760164290943</v>
+        <v>0.0001957447233268692</v>
       </c>
       <c r="O25">
-        <v>0.0002515760164290943</v>
+        <v>0.0001957447233268692</v>
       </c>
       <c r="P25">
-        <v>0.0002515760164290943</v>
+        <v>0.0001957447233268692</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2421,7 +2421,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>99.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2477,10 +2477,10 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>2.604244871283993</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>2.032023066678029</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2507,16 +2507,16 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>2.604244873222061</v>
+        <v>2.032023068483348</v>
       </c>
       <c r="N34">
-        <v>0.001318883540569741</v>
+        <v>0.001026187359361828</v>
       </c>
       <c r="O34">
-        <v>0.001318883540569741</v>
+        <v>0.001026187359361828</v>
       </c>
       <c r="P34">
-        <v>0.001318883540569741</v>
+        <v>0.001026187359361828</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0.7991409160323365</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.8038784012579574</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0.7991409166270536</v>
+        <v>0.803878401972151</v>
       </c>
       <c r="N35">
-        <v>0.809427571402907</v>
+        <v>0.8119296157238666</v>
       </c>
       <c r="O35">
-        <v>0.809427571402907</v>
+        <v>0.8119296157238666</v>
       </c>
       <c r="P35">
-        <v>0.809427571402907</v>
+        <v>0.8119296157238666</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.03383599618533056</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.03403441277457026</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2607,16 +2607,16 @@
         <v>100</v>
       </c>
       <c r="M36">
-        <v>0.03383599620638533</v>
+        <v>0.03403441279385411</v>
       </c>
       <c r="N36">
-        <v>0.03427153793384535</v>
+        <v>0.03437528317989592</v>
       </c>
       <c r="O36">
-        <v>0.03427153793384535</v>
+        <v>0.03437528317989592</v>
       </c>
       <c r="P36">
-        <v>0.03427153793384535</v>
+        <v>0.03437528317989592</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0.2499999998139511</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>0.2499999997778912</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2657,16 +2657,16 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0.2499999255845847</v>
+        <v>0.2499999111674623</v>
       </c>
       <c r="N37">
-        <v>0.2532180353182485</v>
+        <v>0.252503865551047</v>
       </c>
       <c r="O37">
-        <v>0.2532180353182485</v>
+        <v>0.252503865551047</v>
       </c>
       <c r="P37">
-        <v>0.2532180353182485</v>
+        <v>0.252503865551047</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2724,16 +2724,16 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C39">
-        <v>0.3995704580161683</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>0.4019392006289787</v>
       </c>
       <c r="E39">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2757,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0.3995704583135268</v>
+        <v>0.4019392009860755</v>
       </c>
       <c r="N39">
-        <v>1.079433390253881</v>
+        <v>0.9309457542510354</v>
       </c>
       <c r="O39">
-        <v>1.079433390253881</v>
+        <v>0.9309457542510354</v>
       </c>
       <c r="P39">
-        <v>1.079433390253881</v>
+        <v>0.9309457542510354</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2954,10 +2954,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
       </c>
       <c r="D2" t="s">
         <v>70</v>
@@ -2974,13 +2974,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
       </c>
       <c r="E3" t="s">
         <v>70</v>
@@ -3034,19 +3034,19 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>85.23637585580605</v>
+        <v>924.5941325066553</v>
       </c>
       <c r="C6">
-        <v>721.5718420406823</v>
+        <v>4562.093621428787</v>
       </c>
       <c r="D6">
-        <v>3535.757682201279</v>
+        <v>94.49450993508796</v>
       </c>
       <c r="E6">
-        <v>4342.565900097768</v>
+        <v>5581.18226387053</v>
       </c>
       <c r="F6">
-        <v>721.5718420406823</v>
+        <v>924.5941325066553</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3099,19 +3099,19 @@
         <v>23</v>
       </c>
       <c r="B10">
+        <v>0.1964229443526423</v>
+      </c>
+      <c r="C10">
+        <v>98.55012357366127</v>
+      </c>
+      <c r="D10">
         <v>45</v>
       </c>
-      <c r="C10">
-        <v>0.1953376082620832</v>
-      </c>
-      <c r="D10">
-        <v>98.53579877835459</v>
-      </c>
       <c r="E10">
-        <v>81.14448983394773</v>
+        <v>81.34992428655582</v>
       </c>
       <c r="F10">
-        <v>0.1953376082620832</v>
+        <v>0.1964229443526423</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3179,19 +3179,19 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>0.002804195889043055</v>
+        <v>97.68870079599101</v>
       </c>
       <c r="C14">
-        <v>97.09474209879502</v>
+        <v>0.06747684929570577</v>
       </c>
       <c r="D14">
-        <v>0.06753304291156885</v>
+        <v>0.003260970905350382</v>
       </c>
       <c r="E14">
-        <v>16.18855142805814</v>
+        <v>16.23859231447733</v>
       </c>
       <c r="F14">
-        <v>97.09474209879502</v>
+        <v>97.68870079599101</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3239,19 +3239,19 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>0.001742341082429518</v>
+        <v>0.3383606007092099</v>
       </c>
       <c r="C17">
-        <v>0.4335621318071395</v>
+        <v>0.03252066722934507</v>
       </c>
       <c r="D17">
-        <v>0.04196054760156427</v>
+        <v>0.001571634579331564</v>
       </c>
       <c r="E17">
-        <v>0.1062406595712802</v>
+        <v>0.08266296344498658</v>
       </c>
       <c r="F17">
-        <v>0.4335621318071395</v>
+        <v>0.3383606007092099</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3259,19 +3259,19 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>0.0001954154169376951</v>
+        <v>0.4415496996379444</v>
       </c>
       <c r="C18">
-        <v>0.5657846353049653</v>
+        <v>0.003647414280591404</v>
       </c>
       <c r="D18">
-        <v>0.004706161145589235</v>
+        <v>0.0001762695201823094</v>
       </c>
       <c r="E18">
-        <v>0.09784785612853301</v>
+        <v>0.07613275168812811</v>
       </c>
       <c r="F18">
-        <v>0.5657846353049653</v>
+        <v>0.4415496996379444</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3279,19 +3279,19 @@
         <v>32</v>
       </c>
       <c r="B19">
-        <v>4.929345523203238e-05</v>
+        <v>1.332002591111373</v>
       </c>
       <c r="C19">
-        <v>1.706776385206841</v>
+        <v>0.0009200586902021762</v>
       </c>
       <c r="D19">
-        <v>0.001187127133468681</v>
+        <v>4.446391097509372e-05</v>
       </c>
       <c r="E19">
-        <v>0.2845698612598612</v>
+        <v>0.2214160579743598</v>
       </c>
       <c r="F19">
-        <v>1.706776385206841</v>
+        <v>1.332002591111373</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3359,19 +3359,19 @@
         <v>36</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.001400510020366665</v>
       </c>
       <c r="C23">
-        <v>0.001794559144889758</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0002981885313012524</v>
+        <v>0.0002320123741040099</v>
       </c>
       <c r="F23">
-        <v>0.001794559144889758</v>
+        <v>0.001400510020366665</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3379,19 +3379,19 @@
         <v>37</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.0003812727231798693</v>
       </c>
       <c r="C24">
-        <v>0.0004885459158826133</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.117803726062808e-05</v>
+        <v>6.316269673165417e-05</v>
       </c>
       <c r="F24">
-        <v>0.0004885459158826133</v>
+        <v>0.0003812727231798693</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3399,19 +3399,19 @@
         <v>38</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.001181585454275314</v>
       </c>
       <c r="C25">
-        <v>0.001514035563164099</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0002515760164290943</v>
+        <v>0.0001957447233268692</v>
       </c>
       <c r="F25">
-        <v>0.001514035563164099</v>
+        <v>0.001181585454275314</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3556,7 +3556,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3579,16 +3579,16 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>6.719359700566437e-05</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.001254163510348339</v>
       </c>
       <c r="D34">
-        <v>0.001618213651798319</v>
+        <v>6.061027982908963e-05</v>
       </c>
       <c r="E34">
-        <v>0.001318883540569741</v>
+        <v>0.001026187359361828</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3599,16 +3599,16 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>0.04123817483886822</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.9923066072898074</v>
       </c>
       <c r="D35">
-        <v>0.9931329839936539</v>
+        <v>0.04795545449044759</v>
       </c>
       <c r="E35">
-        <v>0.809427571402907</v>
+        <v>0.8119296157238666</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3619,16 +3619,16 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>0.001746043405543108</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>0.04201204139654124</v>
       </c>
       <c r="D36">
-        <v>0.04204971011217187</v>
+        <v>0.002030326639409578</v>
       </c>
       <c r="E36">
-        <v>0.03427153793384535</v>
+        <v>0.03437528317989592</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>0.01290078319757509</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.3085997225623259</v>
       </c>
       <c r="D37">
-        <v>0.3106876907846821</v>
+        <v>0.01491377749818837</v>
       </c>
       <c r="E37">
-        <v>0.2532180353182485</v>
+        <v>0.252503865551047</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3679,16 +3679,16 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>54.93925655911737</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.001138902083869133</v>
       </c>
       <c r="D39">
-        <v>0.001325744310912548</v>
+        <v>54.92998649217628</v>
       </c>
       <c r="E39">
-        <v>1.079433390253881</v>
+        <v>0.9309457542510354</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3769,7 +3769,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>78</v>
@@ -3891,19 +3891,19 @@
         <v>320</v>
       </c>
       <c r="D5">
-        <v>612.1952142804893</v>
+        <v>611.3445892854561</v>
       </c>
       <c r="E5">
-        <v>322.6015401556897</v>
+        <v>324.0165658486168</v>
       </c>
       <c r="F5">
-        <v>612.1952142804893</v>
+        <v>611.3445892854561</v>
       </c>
       <c r="G5">
         <v>623.15</v>
       </c>
       <c r="H5">
-        <v>622.1952143557004</v>
+        <v>621.3445894158499</v>
       </c>
       <c r="I5">
         <v>320</v>
@@ -3914,28 +3914,28 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>721.5718420406823</v>
+        <v>924.5941325066553</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>721.5718420406823</v>
+        <v>924.5941325066553</v>
       </c>
       <c r="E6">
-        <v>721.5718438231409</v>
+        <v>924.5941346012602</v>
       </c>
       <c r="F6">
-        <v>721.5718420406823</v>
+        <v>924.5941325066553</v>
       </c>
       <c r="G6">
-        <v>721.5718420406823</v>
+        <v>924.5941325066553</v>
       </c>
       <c r="H6">
-        <v>721.5718420406822</v>
+        <v>924.5941325066555</v>
       </c>
       <c r="I6">
-        <v>721.5718438231409</v>
+        <v>924.5941346012602</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4006,28 +4006,28 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>0.1953376082620832</v>
+        <v>0.1964229443526423</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1953376082620832</v>
+        <v>0.1964229443526423</v>
       </c>
       <c r="E10">
-        <v>0.544313612825967</v>
+        <v>0.4687708314702076</v>
       </c>
       <c r="F10">
-        <v>0.1953376082620832</v>
+        <v>0.1964229443526423</v>
       </c>
       <c r="G10">
-        <v>0.1953376082620832</v>
+        <v>0.1964229443526423</v>
       </c>
       <c r="H10">
-        <v>0.5443135852353626</v>
+        <v>0.4687708099505706</v>
       </c>
       <c r="I10">
-        <v>0.544313612825967</v>
+        <v>0.4687708314702076</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4122,28 +4122,28 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>97.09474209879502</v>
+        <v>97.68870079599101</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>97.09474209879502</v>
+        <v>97.68870079599101</v>
       </c>
       <c r="E14">
-        <v>97.09474185894732</v>
+        <v>97.68870057468393</v>
       </c>
       <c r="F14">
-        <v>97.09474209879502</v>
+        <v>97.68870079599101</v>
       </c>
       <c r="G14">
-        <v>97.09474209879502</v>
+        <v>97.68870079599101</v>
       </c>
       <c r="H14">
-        <v>97.09474209879504</v>
+        <v>97.688700795991</v>
       </c>
       <c r="I14">
-        <v>97.09474185894732</v>
+        <v>97.68870057468393</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4209,22 +4209,22 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>0.4335621318071395</v>
+        <v>0.3383606007092099</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4335621318071395</v>
+        <v>0.3383606007092099</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4335621318071395</v>
+        <v>0.3383606007092099</v>
       </c>
       <c r="G17">
-        <v>0.4335621318071395</v>
+        <v>0.3383606007092099</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -4238,22 +4238,22 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>0.5657846353049653</v>
+        <v>0.4415496996379444</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5657846353049653</v>
+        <v>0.4415496996379444</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5657846353049653</v>
+        <v>0.4415496996379444</v>
       </c>
       <c r="G18">
-        <v>0.5657846353049653</v>
+        <v>0.4415496996379444</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -4267,22 +4267,22 @@
         <v>32</v>
       </c>
       <c r="B19">
-        <v>1.706776385206841</v>
+        <v>1.332002591111373</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.706776385206841</v>
+        <v>1.332002591111373</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.706776385206841</v>
+        <v>1.332002591111373</v>
       </c>
       <c r="G19">
-        <v>1.706776385206841</v>
+        <v>1.332002591111373</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -4383,28 +4383,28 @@
         <v>36</v>
       </c>
       <c r="B23">
-        <v>0.001794559144889758</v>
+        <v>0.001400510020366665</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.001794559144889758</v>
+        <v>0.001400510020366665</v>
       </c>
       <c r="E23">
-        <v>0.3589117846348726</v>
+        <v>0.2801019696320715</v>
       </c>
       <c r="F23">
-        <v>0.001794559144889758</v>
+        <v>0.001400510020366665</v>
       </c>
       <c r="G23">
-        <v>0.001794559144889758</v>
+        <v>0.001400510020366665</v>
       </c>
       <c r="H23">
-        <v>0.35891175286847</v>
+        <v>0.2801019447795453</v>
       </c>
       <c r="I23">
-        <v>0.3589117846348726</v>
+        <v>0.2801019696320715</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4412,28 +4412,28 @@
         <v>37</v>
       </c>
       <c r="B24">
-        <v>0.0004885459158826133</v>
+        <v>0.0003812727231798693</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0004885459158826133</v>
+        <v>0.0003812727231798693</v>
       </c>
       <c r="E24">
-        <v>0.4880045404594289</v>
+        <v>0.3808485808743198</v>
       </c>
       <c r="F24">
-        <v>0.0004885459158826133</v>
+        <v>0.0003812727231798693</v>
       </c>
       <c r="G24">
-        <v>0.0004885459158826133</v>
+        <v>0.0003812727231798693</v>
       </c>
       <c r="H24">
-        <v>0.4880044917975903</v>
+        <v>0.3808485142147184</v>
       </c>
       <c r="I24">
-        <v>0.4880045404594289</v>
+        <v>0.3808485808743198</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4441,28 +4441,28 @@
         <v>38</v>
       </c>
       <c r="B25">
-        <v>0.001514035563164099</v>
+        <v>0.001181585454275314</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.001514035563164099</v>
+        <v>0.001181585454275314</v>
       </c>
       <c r="E25">
-        <v>1.51402820313242</v>
+        <v>1.181578043339458</v>
       </c>
       <c r="F25">
-        <v>0.001514035563164099</v>
+        <v>0.001181585454275314</v>
       </c>
       <c r="G25">
-        <v>0.001514035563164099</v>
+        <v>0.001181585454275314</v>
       </c>
       <c r="H25">
-        <v>1.514028071303543</v>
+        <v>1.181577935064157</v>
       </c>
       <c r="I25">
-        <v>1.51402820313242</v>
+        <v>1.181578043339458</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4670,7 +4670,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4982,7 +4982,7 @@
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>93</v>
@@ -5329,13 +5329,13 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>311.6087034263339</v>
+        <v>311.6063543753659</v>
       </c>
       <c r="C5">
         <v>320</v>
       </c>
       <c r="D5">
-        <v>311.6087034263339</v>
+        <v>311.6063543753659</v>
       </c>
       <c r="E5">
         <v>310.15</v>
@@ -5353,34 +5353,34 @@
         <v>320</v>
       </c>
       <c r="J5">
-        <v>495.461680159424</v>
+        <v>496.324096353084</v>
       </c>
       <c r="K5">
         <v>325</v>
       </c>
       <c r="L5">
-        <v>490.4290210150332</v>
+        <v>492.681317705932</v>
       </c>
       <c r="M5">
-        <v>503.235418741648</v>
+        <v>503.2360216939598</v>
       </c>
       <c r="N5">
-        <v>424.4367760036241</v>
+        <v>423.9597825487249</v>
       </c>
       <c r="O5">
-        <v>503.2381066202208</v>
+        <v>503.2381066207269</v>
       </c>
       <c r="P5">
-        <v>503.2356865145274</v>
+        <v>503.2362295760065</v>
       </c>
       <c r="Q5">
-        <v>503.2356865145274</v>
+        <v>503.2362295760065</v>
       </c>
       <c r="R5">
         <v>320</v>
       </c>
       <c r="S5">
-        <v>311.6087034263339</v>
+        <v>311.6063543753659</v>
       </c>
       <c r="T5">
         <v>320</v>
@@ -5389,10 +5389,10 @@
         <v>320</v>
       </c>
       <c r="V5">
-        <v>339.9890628661018</v>
+        <v>339.9682584803693</v>
       </c>
       <c r="W5">
-        <v>423.1318167560229</v>
+        <v>423.1318158918771</v>
       </c>
       <c r="X5">
         <v>320</v>
@@ -5407,7 +5407,7 @@
         <v>320</v>
       </c>
       <c r="AB5">
-        <v>387.6564126355401</v>
+        <v>388.9346587878035</v>
       </c>
       <c r="AC5">
         <v>325</v>
@@ -5418,88 +5418,88 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>3535.813055713571</v>
+        <v>4561.63504564518</v>
       </c>
       <c r="C6">
-        <v>721.5718438231409</v>
+        <v>924.5941346012602</v>
       </c>
       <c r="D6">
-        <v>704.5040308307171</v>
+        <v>908.0398639787545</v>
       </c>
       <c r="E6">
-        <v>3535.757682201279</v>
+        <v>4562.093621428787</v>
       </c>
       <c r="F6">
-        <v>721.5718438231409</v>
+        <v>924.5941346012602</v>
       </c>
       <c r="G6">
-        <v>718.0369914281171</v>
+        <v>920.6933297500145</v>
       </c>
       <c r="H6">
-        <v>3.534852395023814</v>
+        <v>3.900804851245589</v>
       </c>
       <c r="I6">
-        <v>718.0369914281171</v>
+        <v>920.6933297500145</v>
       </c>
       <c r="J6">
-        <v>718.0369914281171</v>
+        <v>920.6933297500145</v>
       </c>
       <c r="K6">
-        <v>700.3264949563273</v>
+        <v>902.942171580519</v>
       </c>
       <c r="L6">
-        <v>87.47857553676926</v>
+        <v>107.7808049080921</v>
       </c>
       <c r="M6">
-        <v>630.5584158913479</v>
+        <v>812.9125248419225</v>
       </c>
       <c r="N6">
-        <v>17.71049647178984</v>
+        <v>17.75115816949546</v>
       </c>
       <c r="O6">
-        <v>69.7680790649794</v>
+        <v>90.0296467385966</v>
       </c>
       <c r="P6">
-        <v>700.3264949563273</v>
+        <v>902.942171580519</v>
       </c>
       <c r="Q6">
-        <v>700.3264949563273</v>
+        <v>902.942171580519</v>
       </c>
       <c r="R6">
-        <v>0.6980569916565247</v>
+        <v>0.7383117633826457</v>
       </c>
       <c r="S6">
-        <v>704.5040308307171</v>
+        <v>908.0398639787545</v>
       </c>
       <c r="T6">
-        <v>17.71049647178984</v>
+        <v>17.75115816949546</v>
       </c>
       <c r="U6">
-        <v>17.01243948013332</v>
+        <v>17.01284640611281</v>
       </c>
       <c r="V6">
-        <v>2.650900881857459</v>
+        <v>2.651307495735509</v>
       </c>
       <c r="W6">
-        <v>14.36153859827586</v>
+        <v>14.36153891037731</v>
       </c>
       <c r="X6">
-        <v>2.650900881857459</v>
+        <v>2.651307495735509</v>
       </c>
       <c r="Y6">
-        <v>3.535603859218586</v>
+        <v>3.535604130437075</v>
       </c>
       <c r="Z6">
-        <v>10.82593473905727</v>
+        <v>10.82593477994023</v>
       </c>
       <c r="AA6">
-        <v>3.535603859218586</v>
+        <v>3.535604130437075</v>
       </c>
       <c r="AB6">
-        <v>17.01243948013332</v>
+        <v>17.01284640611281</v>
       </c>
       <c r="AC6">
-        <v>10.82593473905727</v>
+        <v>10.82593477994023</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -5690,73 +5690,73 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>98.62283300880034</v>
+        <v>98.63255579505227</v>
       </c>
       <c r="C10">
-        <v>0.544313612825967</v>
+        <v>0.4687708314702076</v>
       </c>
       <c r="D10">
-        <v>0.112384842121462</v>
+        <v>0.1125020306877893</v>
       </c>
       <c r="E10">
-        <v>98.53579877835459</v>
+        <v>98.55012357366127</v>
       </c>
       <c r="F10">
-        <v>0.544313612825967</v>
+        <v>0.4687708314702076</v>
       </c>
       <c r="G10">
-        <v>0.05469932356043354</v>
+        <v>0.04707569255087276</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="I10">
-        <v>0.05469932356043354</v>
+        <v>0.04707569255087276</v>
       </c>
       <c r="J10">
-        <v>0.05469932356043354</v>
+        <v>0.04707569255087276</v>
       </c>
       <c r="K10">
-        <v>1.121646868883548e-12</v>
+        <v>9.600289739341571e-13</v>
       </c>
       <c r="L10">
-        <v>0.4489800786203407</v>
+        <v>0.4021335353867215</v>
       </c>
       <c r="M10">
-        <v>6.228756927726964e-13</v>
+        <v>5.331758461175706e-13</v>
       </c>
       <c r="N10">
-        <v>2.217675703459939</v>
+        <v>2.441659057411016</v>
       </c>
       <c r="O10">
-        <v>5.629501562830412e-12</v>
+        <v>4.814251071212401e-12</v>
       </c>
       <c r="P10">
-        <v>1.121646868883548e-12</v>
+        <v>9.600289739341571e-13</v>
       </c>
       <c r="Q10">
-        <v>1.121646868883548e-12</v>
+        <v>9.600289739341571e-13</v>
       </c>
       <c r="R10">
-        <v>55.70229481150538</v>
+        <v>58.11752634991525</v>
       </c>
       <c r="S10">
-        <v>0.112384842121462</v>
+        <v>0.1125020306877893</v>
       </c>
       <c r="T10">
-        <v>2.217675703459939</v>
+        <v>2.441659057411016</v>
       </c>
       <c r="U10">
-        <v>0.02308671708579299</v>
+        <v>0.02547620491566362</v>
       </c>
       <c r="V10">
-        <v>0.1481614721640627</v>
+        <v>0.1634751012238224</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.1481614721640627</v>
+        <v>0.1634751012238224</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.02308671708579299</v>
+        <v>0.02547620491566362</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -6046,61 +6046,61 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>1.988216324700083e-05</v>
+        <v>1.9867927698066e-05</v>
       </c>
       <c r="C14">
-        <v>97.09474185894732</v>
+        <v>97.68870057468393</v>
       </c>
       <c r="D14">
-        <v>99.78586212127605</v>
+        <v>99.80855272651641</v>
       </c>
       <c r="E14">
-        <v>0.06753304291156885</v>
+        <v>0.06747684929570577</v>
       </c>
       <c r="F14">
-        <v>97.09474185894732</v>
+        <v>97.68870057468393</v>
       </c>
       <c r="G14">
-        <v>97.57273336203366</v>
+        <v>98.10258926573928</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>97.57273336203366</v>
+        <v>98.10258926573928</v>
       </c>
       <c r="J14">
-        <v>97.57273336203366</v>
+        <v>98.10258926573928</v>
       </c>
       <c r="K14">
-        <v>99.99843947553893</v>
+        <v>99.99878964597241</v>
       </c>
       <c r="L14">
-        <v>80.08913208611213</v>
+        <v>83.8019345329552</v>
       </c>
       <c r="M14">
-        <v>99.99826681987906</v>
+        <v>99.99865560831643</v>
       </c>
       <c r="N14">
-        <v>1.652990910364229</v>
+        <v>1.649204493258094</v>
       </c>
       <c r="O14">
-        <v>99.9999999238248</v>
+        <v>99.99999992384534</v>
       </c>
       <c r="P14">
-        <v>99.99843947553893</v>
+        <v>99.99878964597241</v>
       </c>
       <c r="Q14">
-        <v>99.99843947553893</v>
+        <v>99.99878964597241</v>
       </c>
       <c r="R14">
-        <v>41.93825151215033</v>
+        <v>39.65166378975123</v>
       </c>
       <c r="S14">
-        <v>99.78586212127605</v>
+        <v>99.80855272651641</v>
       </c>
       <c r="T14">
-        <v>1.652990910364229</v>
+        <v>1.649204493258094</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -6313,16 +6313,16 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>0.02760960792767184</v>
+        <v>0.02140075021279736</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.07202218033866789</v>
+        <v>0.05587851191409314</v>
       </c>
       <c r="E17">
-        <v>0.04196054760156427</v>
+        <v>0.03252066722934507</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07202218033866789</v>
+        <v>0.05587851191409314</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -6402,16 +6402,16 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>0.0006635583295389755</v>
+        <v>0.0005143371140686152</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02028892184268777</v>
+        <v>0.0157411891111835</v>
       </c>
       <c r="E18">
-        <v>0.004706161145589235</v>
+        <v>0.003647414280591404</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -6453,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.02028892184268777</v>
+        <v>0.0157411891111835</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -6491,16 +6491,16 @@
         <v>32</v>
       </c>
       <c r="B19">
-        <v>8.072338086674611e-05</v>
+        <v>6.257028041786515e-05</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.005552801583446847</v>
+        <v>0.004308149072663423</v>
       </c>
       <c r="E19">
-        <v>0.001187127133468681</v>
+        <v>0.0009200586902021762</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -6542,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.005552801583446847</v>
+        <v>0.004308149072663423</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -6850,82 +6850,82 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3589117846348726</v>
+        <v>0.2801019696320715</v>
       </c>
       <c r="D23">
-        <v>0.001838035403259597</v>
+        <v>0.001426042403304284</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.3589117846348726</v>
+        <v>0.2801019696320715</v>
       </c>
       <c r="G23">
-        <v>0.3606786855002381</v>
+        <v>0.2812887091105479</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3606786855002381</v>
+        <v>0.2812887091105479</v>
       </c>
       <c r="J23">
-        <v>0.3606786855002381</v>
+        <v>0.2812887091105479</v>
       </c>
       <c r="K23">
-        <v>2.286969757160964e-10</v>
+        <v>1.768245101774087e-10</v>
       </c>
       <c r="L23">
-        <v>2.960503602878293</v>
+        <v>2.402845648405036</v>
       </c>
       <c r="M23">
-        <v>2.498939574270309e-10</v>
+        <v>1.932218891133919e-10</v>
       </c>
       <c r="N23">
-        <v>14.62300271825771</v>
+        <v>14.58950653132354</v>
       </c>
       <c r="O23">
-        <v>3.712032076941018e-11</v>
+        <v>2.876622943858923e-11</v>
       </c>
       <c r="P23">
-        <v>2.286969757160964e-10</v>
+        <v>1.768245101774087e-10</v>
       </c>
       <c r="Q23">
-        <v>2.286969757160964e-10</v>
+        <v>1.768245101774087e-10</v>
       </c>
       <c r="R23">
-        <v>1.855010702164197</v>
+        <v>1.753870457554853</v>
       </c>
       <c r="S23">
-        <v>0.001838035403259597</v>
+        <v>0.001426042403304284</v>
       </c>
       <c r="T23">
-        <v>14.62300271825771</v>
+        <v>14.58950653132354</v>
       </c>
       <c r="U23">
-        <v>15.14690089915392</v>
+        <v>15.14653860447252</v>
       </c>
       <c r="V23">
-        <v>97.20675640770955</v>
+        <v>97.19184843775025</v>
       </c>
       <c r="W23">
-        <v>1.800466787347482e-05</v>
+        <v>1.800466886374039e-05</v>
       </c>
       <c r="X23">
-        <v>97.20675640770955</v>
+        <v>97.19184843775025</v>
       </c>
       <c r="Y23">
-        <v>7.313453172641186e-05</v>
+        <v>7.313453172799106e-05</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>7.313453172641186e-05</v>
+        <v>7.313453172799106e-05</v>
       </c>
       <c r="AB23">
-        <v>15.14690089915392</v>
+        <v>15.14653860447252</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -6939,85 +6939,85 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4880045404594289</v>
+        <v>0.3808485808743198</v>
       </c>
       <c r="D24">
-        <v>0.0005003817785782164</v>
+        <v>0.0003882236242278735</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4880045404594289</v>
+        <v>0.3808485808743198</v>
       </c>
       <c r="G24">
-        <v>0.4904069571026084</v>
+        <v>0.3824621648374707</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4904069571026084</v>
+        <v>0.3824621648374707</v>
       </c>
       <c r="J24">
-        <v>0.4904069571026084</v>
+        <v>0.3824621648374707</v>
       </c>
       <c r="K24">
-        <v>5.583609173646148e-07</v>
+        <v>4.347514795392999e-07</v>
       </c>
       <c r="L24">
-        <v>4.025327834401503</v>
+        <v>3.267093540412487</v>
       </c>
       <c r="M24">
-        <v>6.20135126321384e-07</v>
+        <v>4.828956520538624e-07</v>
       </c>
       <c r="N24">
-        <v>19.88255640260116</v>
+        <v>19.83701390804368</v>
       </c>
       <c r="O24">
-        <v>5.047131602998018e-11</v>
+        <v>3.911252453891513e-11</v>
       </c>
       <c r="P24">
-        <v>5.583609173646148e-07</v>
+        <v>4.347514795392999e-07</v>
       </c>
       <c r="Q24">
-        <v>5.583609173646148e-07</v>
+        <v>4.347514795392999e-07</v>
       </c>
       <c r="R24">
-        <v>0.5044429741800823</v>
+        <v>0.476939402778668</v>
       </c>
       <c r="S24">
-        <v>0.0005003817785782164</v>
+        <v>0.0003882236242278735</v>
       </c>
       <c r="T24">
-        <v>19.88255640260116</v>
+        <v>19.83701390804368</v>
       </c>
       <c r="U24">
-        <v>20.67768208575901</v>
+        <v>20.67718905604631</v>
       </c>
       <c r="V24">
-        <v>2.645081807012505</v>
+        <v>2.644676147966</v>
       </c>
       <c r="W24">
-        <v>24.00619982457921</v>
+        <v>24.00620114440923</v>
       </c>
       <c r="X24">
-        <v>2.645081807012505</v>
+        <v>2.644676147966</v>
       </c>
       <c r="Y24">
-        <v>97.5123664956805</v>
+        <v>97.51236649568051</v>
       </c>
       <c r="Z24">
-        <v>8.000001599006921e-05</v>
+        <v>8.000001599645737e-05</v>
       </c>
       <c r="AA24">
-        <v>97.5123664956805</v>
+        <v>97.51236649568051</v>
       </c>
       <c r="AB24">
-        <v>20.677682085759</v>
+        <v>20.67718905604631</v>
       </c>
       <c r="AC24">
-        <v>8.000001599006921e-05</v>
+        <v>8.000001599645737e-05</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -7028,70 +7028,70 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.51402820313242</v>
+        <v>1.181578043339458</v>
       </c>
       <c r="D25">
-        <v>0.001550715655862487</v>
+        <v>0.001203126670332755</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.51402820313242</v>
+        <v>1.181578043339458</v>
       </c>
       <c r="G25">
-        <v>1.521481671803069</v>
+        <v>1.186584167761839</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.521481671803069</v>
+        <v>1.186584167761839</v>
       </c>
       <c r="J25">
-        <v>1.521481671803069</v>
+        <v>1.186584167761839</v>
       </c>
       <c r="K25">
-        <v>0.001559965870341017</v>
+        <v>0.001209919098324831</v>
       </c>
       <c r="L25">
-        <v>12.47605639798772</v>
+        <v>10.12599274284053</v>
       </c>
       <c r="M25">
-        <v>0.001732559735310605</v>
+        <v>0.001343908594172177</v>
       </c>
       <c r="N25">
-        <v>61.62377426531696</v>
+        <v>61.48261600996366</v>
       </c>
       <c r="O25">
-        <v>7.608196905751277e-08</v>
+        <v>7.608197023187413e-08</v>
       </c>
       <c r="P25">
-        <v>0.001559965870341017</v>
+        <v>0.001209919098324831</v>
       </c>
       <c r="Q25">
-        <v>0.001559965870341017</v>
+        <v>0.001209919098324831</v>
       </c>
       <c r="R25">
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0.001550715655862487</v>
+        <v>0.001203126670332755</v>
       </c>
       <c r="T25">
-        <v>61.62377426531696</v>
+        <v>61.48261600996366</v>
       </c>
       <c r="U25">
-        <v>64.15233029800127</v>
+        <v>64.15079613456552</v>
       </c>
       <c r="V25">
-        <v>3.131138841470555e-07</v>
+        <v>3.130599128513995e-07</v>
       </c>
       <c r="W25">
-        <v>75.99378217075292</v>
+        <v>75.99378085092189</v>
       </c>
       <c r="X25">
-        <v>3.131138841470555e-07</v>
+        <v>3.130599128513995e-07</v>
       </c>
       <c r="Y25">
         <v>2.48756036978777</v>
@@ -7103,7 +7103,7 @@
         <v>2.48756036978777</v>
       </c>
       <c r="AB25">
-        <v>64.15233029800127</v>
+        <v>64.15079613456552</v>
       </c>
       <c r="AC25">
         <v>99.99991999998402</v>
@@ -7734,7 +7734,7 @@
     </row>
     <row r="33" spans="1:29">
       <c r="A33" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -7826,7 +7826,7 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>0.001618188309346067</v>
+        <v>0.001254289589924801</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -7835,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.001618213651798319</v>
+        <v>0.001254163510348339</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>0.9931174307784161</v>
+        <v>0.9924063627010716</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -7924,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.9931329839936539</v>
+        <v>0.9923066072898074</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -8004,7 +8004,7 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>0.04204905158184148</v>
+        <v>0.04201626481744439</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.04204971011217187</v>
+        <v>0.04201204139654124</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -8093,7 +8093,7 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>0.3106828251799702</v>
+        <v>0.3086307457279626</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.3106876907846821</v>
+        <v>0.3085997225623259</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -8271,7 +8271,7 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>0.00132572354875184</v>
+        <v>0.001139016576350521</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.001325744310912548</v>
+        <v>0.001138902083869133</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -8655,28 +8655,28 @@
         <v>142</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>149</v>
@@ -8738,16 +8738,16 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
@@ -8756,7 +8756,7 @@
         <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
         <v>55</v>
@@ -8765,49 +8765,49 @@
         <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
         <v>55</v>
       </c>
       <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" t="s">
         <v>132</v>
       </c>
-      <c r="N2" t="s">
-        <v>159</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S2" t="s">
         <v>134</v>
       </c>
-      <c r="P2" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
+        <v>160</v>
+      </c>
+      <c r="U2" t="s">
         <v>136</v>
       </c>
-      <c r="R2" t="s">
-        <v>159</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>55</v>
       </c>
-      <c r="T2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" t="s">
-        <v>161</v>
-      </c>
       <c r="W2" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="X2" t="s">
         <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="Z2" t="s">
         <v>63</v>
@@ -8839,49 +8839,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>66</v>
       </c>
-      <c r="F3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>160</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" t="s">
         <v>86</v>
       </c>
-      <c r="I3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" t="s">
         <v>117</v>
       </c>
-      <c r="L3" t="s">
-        <v>159</v>
-      </c>
-      <c r="M3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" t="s">
-        <v>55</v>
-      </c>
       <c r="P3" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="Q3" t="s">
         <v>55</v>
@@ -8890,25 +8890,25 @@
         <v>55</v>
       </c>
       <c r="S3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" t="s">
+        <v>159</v>
+      </c>
+      <c r="W3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" t="s">
         <v>63</v>
       </c>
-      <c r="T3" t="s">
-        <v>161</v>
-      </c>
-      <c r="U3" t="s">
-        <v>161</v>
-      </c>
-      <c r="V3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>159</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>55</v>
       </c>
       <c r="Z3" t="s">
         <v>56</v>
@@ -8958,7 +8958,7 @@
         <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
         <v>57</v>
@@ -8973,10 +8973,10 @@
         <v>57</v>
       </c>
       <c r="M4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" t="s">
         <v>57</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
       </c>
       <c r="O4" t="s">
         <v>57</v>
@@ -8988,7 +8988,7 @@
         <v>57</v>
       </c>
       <c r="R4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S4" t="s">
         <v>57</v>
@@ -9041,25 +9041,25 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>298.15</v>
+        <v>305.372</v>
       </c>
       <c r="C5">
         <v>298.15</v>
       </c>
       <c r="D5">
-        <v>300.372</v>
+        <v>298.15</v>
       </c>
       <c r="E5">
-        <v>298.15</v>
+        <v>305.372</v>
       </c>
       <c r="F5">
         <v>298.15</v>
       </c>
       <c r="G5">
+        <v>298.15</v>
+      </c>
+      <c r="H5">
         <v>300.372</v>
-      </c>
-      <c r="H5">
-        <v>320</v>
       </c>
       <c r="I5">
         <v>298.15</v>
@@ -9068,7 +9068,7 @@
         <v>298.15</v>
       </c>
       <c r="K5">
-        <v>320</v>
+        <v>300.372</v>
       </c>
       <c r="L5">
         <v>298.15</v>
@@ -9077,7 +9077,7 @@
         <v>320</v>
       </c>
       <c r="N5">
-        <v>633.15</v>
+        <v>298.15</v>
       </c>
       <c r="O5">
         <v>320</v>
@@ -9086,19 +9086,19 @@
         <v>298.15</v>
       </c>
       <c r="Q5">
+        <v>320</v>
+      </c>
+      <c r="R5">
+        <v>633.15</v>
+      </c>
+      <c r="S5">
+        <v>320</v>
+      </c>
+      <c r="T5">
+        <v>298.15</v>
+      </c>
+      <c r="U5">
         <v>325</v>
-      </c>
-      <c r="R5">
-        <v>298.15</v>
-      </c>
-      <c r="S5">
-        <v>298.15</v>
-      </c>
-      <c r="T5">
-        <v>305.372</v>
-      </c>
-      <c r="U5">
-        <v>305.372</v>
       </c>
       <c r="V5">
         <v>305.372</v>
@@ -9142,100 +9142,100 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>1.488264119754239</v>
+        <v>2704.748655018984</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>607.7167607365269</v>
+        <v>14.09270095972253</v>
       </c>
       <c r="E6">
-        <v>35.14992570173215</v>
+        <v>29.75223520520882</v>
       </c>
       <c r="F6">
-        <v>6.699992268728364</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>607.7167607365269</v>
+        <v>1.918547207991621</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>607.7167607365268</v>
       </c>
       <c r="I6">
-        <v>9.868640886707963</v>
+        <v>45.31527170789259</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.657069551940537</v>
       </c>
       <c r="K6">
-        <v>721.5718438231409</v>
+        <v>607.7167607365268</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.456529896820581</v>
       </c>
       <c r="M6">
-        <v>2.650900881857459</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>49.23724969179032</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>3.535603859218586</v>
+        <v>924.5941346012602</v>
       </c>
       <c r="P6">
-        <v>6.699992268728364</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>10.82593473905727</v>
+        <v>2.651307495735509</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>37.20259239127373</v>
       </c>
       <c r="S6">
-        <v>114.5467737895745</v>
+        <v>3.535604130437075</v>
       </c>
       <c r="T6">
-        <v>38.96871006221123</v>
+        <v>5.657069551940537</v>
       </c>
       <c r="U6">
-        <v>3542.610005655567</v>
+        <v>10.82593477994023</v>
       </c>
       <c r="V6">
-        <v>3542.610005655567</v>
+        <v>2704.748655018984</v>
       </c>
       <c r="W6">
-        <v>10.99616005462778</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>114.5467737895744</v>
       </c>
       <c r="Y6">
-        <v>38.96871006221123</v>
+        <v>29.75223520520882</v>
       </c>
       <c r="Z6">
-        <v>114.5467737895745</v>
+        <v>114.5467737895744</v>
       </c>
       <c r="AA6">
-        <v>10.99616005462778</v>
+        <v>14.09270095972253</v>
       </c>
       <c r="AB6">
-        <v>35.14992570173215</v>
+        <v>45.31527170789259</v>
       </c>
       <c r="AC6">
-        <v>1.488264119754239</v>
+        <v>1.918547207991621</v>
       </c>
       <c r="AD6">
-        <v>721.5718438231409</v>
+        <v>924.5941346012602</v>
       </c>
       <c r="AE6">
-        <v>2.650900881857459</v>
+        <v>2.651307495735509</v>
       </c>
       <c r="AF6">
-        <v>3.535603859218586</v>
+        <v>3.535604130437075</v>
       </c>
       <c r="AG6">
-        <v>10.82593473905727</v>
+        <v>10.82593477994023</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -9370,16 +9370,16 @@
         <v>0</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>100</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -9450,55 +9450,55 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>100</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>100</v>
       </c>
-      <c r="G10">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>100</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>0.544313612825967</v>
+        <v>100</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.1481614721640627</v>
+        <v>0</v>
       </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0.4687708314702076</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.1634751012238224</v>
+      </c>
+      <c r="R10">
         <v>45.01565840905167</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>100</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -9507,10 +9507,10 @@
         <v>100</v>
       </c>
       <c r="U10">
-        <v>99.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -9534,10 +9534,10 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.544313612825967</v>
+        <v>0.4687708314702076</v>
       </c>
       <c r="AE10">
-        <v>0.1481614721640627</v>
+        <v>0.1634751012238224</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>97.09474185894732</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>97.68870057468393</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -9938,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>97.09474185894732</v>
+        <v>97.68870057468393</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -10790,31 +10790,31 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3589117846348726</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>97.20675640770955</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>7.313453172641186e-05</v>
+        <v>0.2801019696320715</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>97.19184843775025</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>7.313453172799106e-05</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -10847,13 +10847,13 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>0.3589117846348726</v>
+        <v>0.2801019696320715</v>
       </c>
       <c r="AE23">
-        <v>97.20675640770955</v>
+        <v>97.19184843775025</v>
       </c>
       <c r="AF23">
-        <v>7.313453172641186e-05</v>
+        <v>7.313453172799106e-05</v>
       </c>
       <c r="AG23">
         <v>0</v>
@@ -10891,37 +10891,37 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4880045404594289</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.645081807012505</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>97.5123664956805</v>
+        <v>0.3808485808743198</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8.000001599006921e-05</v>
+        <v>2.644676147966</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>97.51236649568051</v>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>8.000001599645737e-05</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -10948,16 +10948,16 @@
         <v>0</v>
       </c>
       <c r="AD24">
-        <v>0.4880045404594289</v>
+        <v>0.3808485808743198</v>
       </c>
       <c r="AE24">
-        <v>2.645081807012505</v>
+        <v>2.644676147966</v>
       </c>
       <c r="AF24">
-        <v>97.5123664956805</v>
+        <v>97.51236649568051</v>
       </c>
       <c r="AG24">
-        <v>8.000001599006921e-05</v>
+        <v>8.000001599645737e-05</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -10992,38 +10992,38 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.51402820313242</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.131138841470555e-07</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>1.181578043339458</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>3.130599128513995e-07</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>2.48756036978777</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
         <v>99.99991999998402</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
       <c r="V25">
         <v>0</v>
       </c>
@@ -11049,10 +11049,10 @@
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>1.51402820313242</v>
+        <v>1.181578043339458</v>
       </c>
       <c r="AE25">
-        <v>3.131138841470555e-07</v>
+        <v>3.130599128513995e-07</v>
       </c>
       <c r="AF25">
         <v>2.48756036978777</v>
@@ -11770,7 +11770,7 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -11809,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>54.98434159094834</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -11821,7 +11821,7 @@
         <v>0</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>54.98434159094835</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -11925,22 +11925,22 @@
         <v>0</v>
       </c>
       <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
         <v>100</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -11984,19 +11984,19 @@
         <v>0</v>
       </c>
       <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>100</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -12076,22 +12076,22 @@
         <v>48</v>
       </c>
       <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>100</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -12183,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -12240,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X37">
         <v>0</v>
